--- a/remap_ville_plugin/CH_ReMaP/archetypes/INDOOR_COMFORT_SUMMARY.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/INDOOR_COMFORT_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8D264F-F01C-4929-B432-F5FCB8FCB911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3193CEE3-F568-49E6-AF17-EE86167CC7CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{53BA8E7A-152A-46DA-BA2F-0D9D440113B3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53BA8E7A-152A-46DA-BA2F-0D9D440113B3}"/>
   </bookViews>
   <sheets>
     <sheet name="SQ" sheetId="4" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1727,7 +1727,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1786,8 +1786,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="3">
-        <f>30/3.6</f>
-        <v>8.3333333333333339</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G2" s="3">
         <v>30</v>
@@ -2317,7 +2316,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2376,8 +2375,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="3">
-        <f>30/3.6</f>
-        <v>8.3333333333333339</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G2" s="3">
         <v>30</v>
@@ -2907,7 +2905,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2966,8 +2964,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="3">
-        <f>30/3.6</f>
-        <v>8.3333333333333339</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G2" s="3">
         <v>30</v>

--- a/remap_ville_plugin/CH_ReMaP/archetypes/INDOOR_COMFORT_SUMMARY.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/INDOOR_COMFORT_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3193CEE3-F568-49E6-AF17-EE86167CC7CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5E8911-4C3B-4403-8C24-792174D1B2C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53BA8E7A-152A-46DA-BA2F-0D9D440113B3}"/>
+    <workbookView xWindow="-19260" yWindow="2190" windowWidth="14400" windowHeight="10890" xr2:uid="{53BA8E7A-152A-46DA-BA2F-0D9D440113B3}"/>
   </bookViews>
   <sheets>
     <sheet name="SQ" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="29">
   <si>
     <t>UNIVERSITY</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>SECONDARY_RES</t>
   </si>
 </sst>
 </file>
@@ -544,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F5C796-54D1-4604-BB31-0B30E71D1ECA}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -671,8 +674,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
+      <c r="A5" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B5" s="5">
         <v>26</v>
@@ -684,11 +687,11 @@
         <v>28</v>
       </c>
       <c r="E5" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3">
-        <f>36/3.6</f>
-        <v>10</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G5" s="3">
         <v>30</v>
@@ -699,7 +702,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>26</v>
@@ -711,7 +714,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3">
         <f>36/3.6</f>
@@ -725,14 +728,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
+      <c r="A7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="5">
         <v>26</v>
       </c>
       <c r="C7" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5">
         <v>28</v>
@@ -741,8 +744,8 @@
         <v>12</v>
       </c>
       <c r="F7" s="3">
-        <f>30/3.6</f>
-        <v>8.3333333333333339</v>
+        <f>36/3.6</f>
+        <v>10</v>
       </c>
       <c r="G7" s="3">
         <v>30</v>
@@ -753,7 +756,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5">
         <v>26</v>
@@ -780,13 +783,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5">
         <v>26</v>
       </c>
       <c r="C9" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5">
         <v>28</v>
@@ -795,90 +798,90 @@
         <v>12</v>
       </c>
       <c r="F9" s="3">
-        <f>36/3.6</f>
-        <v>10</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G9" s="3">
         <v>30</v>
       </c>
       <c r="H9" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B11" s="5">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5">
         <v>32</v>
       </c>
-      <c r="E10" s="4">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E11" s="4">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
         <f>10*15/3.6</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="G10" s="3">
-        <v>30</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G11" s="3">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
         <v>26</v>
       </c>
-      <c r="C11" s="4">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="C12" s="4">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3">
         <f>25/3.6</f>
         <v>6.9444444444444446</v>
       </c>
-      <c r="G11" s="3">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3">
-        <f>36*1000/3600</f>
-        <v>10</v>
-      </c>
       <c r="G12" s="3">
         <v>30</v>
       </c>
@@ -888,50 +891,50 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="5">
         <v>26</v>
       </c>
       <c r="C13" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5">
         <v>28</v>
       </c>
       <c r="E13" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F13" s="3">
-        <f>9*10/3.6</f>
-        <v>25</v>
+        <f>36*1000/3600</f>
+        <v>10</v>
       </c>
       <c r="G13" s="3">
         <v>30</v>
       </c>
       <c r="H13" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4">
         <v>12</v>
       </c>
       <c r="F14" s="3">
-        <f>3.6*10/3.6</f>
-        <v>10</v>
+        <f>9*10/3.6</f>
+        <v>25</v>
       </c>
       <c r="G14" s="3">
         <v>30</v>
@@ -942,36 +945,37 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="5">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D15" s="5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4">
         <v>12</v>
       </c>
       <c r="F15" s="3">
-        <v>36</v>
+        <f>3.6*10/3.6</f>
+        <v>10</v>
       </c>
       <c r="G15" s="3">
         <v>30</v>
       </c>
       <c r="H15" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4">
         <v>18</v>
@@ -983,30 +987,30 @@
         <v>12</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G16" s="3">
         <v>30</v>
       </c>
       <c r="H16" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" s="5">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D17" s="5">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4">
-        <v>-18</v>
+        <v>12</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1020,51 +1024,50 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-18</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B19" s="5">
         <v>26</v>
       </c>
-      <c r="C18" s="4">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5">
-        <v>28</v>
-      </c>
-      <c r="E18" s="4">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="C19" s="4">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3">
         <f>20*15/3.6</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="G18" s="3">
-        <v>30</v>
-      </c>
-      <c r="H18" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="5">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5">
-        <v>28</v>
-      </c>
-      <c r="E19" s="4">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3">
-        <f>36/3.6</f>
-        <v>10</v>
-      </c>
       <c r="G19" s="3">
         <v>30</v>
       </c>
@@ -1074,7 +1077,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" s="5">
         <v>26</v>
@@ -1093,7 +1096,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3">
         <v>60</v>
@@ -1101,7 +1104,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="5">
         <v>26</v>
@@ -1116,13 +1119,40 @@
         <v>12</v>
       </c>
       <c r="F21" s="3">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
+        <v>40</v>
+      </c>
+      <c r="H21" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3">
         <f>30/3.6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G21" s="3">
-        <v>30</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G22" s="3">
+        <v>30</v>
+      </c>
+      <c r="H22" s="3">
         <v>60</v>
       </c>
     </row>

--- a/remap_ville_plugin/CH_ReMaP/archetypes/INDOOR_COMFORT_SUMMARY.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/INDOOR_COMFORT_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3193CEE3-F568-49E6-AF17-EE86167CC7CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF64D85D-D800-4C12-AE92-BC259B9D76A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53BA8E7A-152A-46DA-BA2F-0D9D440113B3}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="4" xr2:uid="{53BA8E7A-152A-46DA-BA2F-0D9D440113B3}"/>
   </bookViews>
   <sheets>
     <sheet name="SQ" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="29">
   <si>
     <t>UNIVERSITY</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>SECONDARY_RES</t>
   </si>
 </sst>
 </file>
@@ -544,13 +547,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F5C796-54D1-4604-BB31-0B30E71D1ECA}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="15.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
@@ -564,7 +567,7 @@
     <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -590,7 +593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -616,7 +619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -643,7 +646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -670,9 +673,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B5" s="5">
         <v>26</v>
@@ -684,11 +687,11 @@
         <v>28</v>
       </c>
       <c r="E5" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3">
-        <f>36/3.6</f>
-        <v>10</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G5" s="3">
         <v>30</v>
@@ -697,9 +700,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>26</v>
@@ -711,7 +714,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3">
         <f>36/3.6</f>
@@ -724,15 +727,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="5">
         <v>26</v>
       </c>
       <c r="C7" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5">
         <v>28</v>
@@ -741,8 +744,8 @@
         <v>12</v>
       </c>
       <c r="F7" s="3">
-        <f>30/3.6</f>
-        <v>8.3333333333333339</v>
+        <f>36/3.6</f>
+        <v>10</v>
       </c>
       <c r="G7" s="3">
         <v>30</v>
@@ -751,9 +754,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5">
         <v>26</v>
@@ -778,15 +781,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5">
         <v>26</v>
       </c>
       <c r="C9" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5">
         <v>28</v>
@@ -795,143 +798,143 @@
         <v>12</v>
       </c>
       <c r="F9" s="3">
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G9" s="3">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
         <f>36/3.6</f>
         <v>10</v>
       </c>
-      <c r="G9" s="3">
-        <v>30</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G10" s="3">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B11" s="5">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5">
         <v>32</v>
       </c>
-      <c r="E10" s="4">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E11" s="4">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
         <f>10*15/3.6</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="G10" s="3">
-        <v>30</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G11" s="3">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
         <v>26</v>
       </c>
-      <c r="C11" s="4">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="C12" s="4">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3">
         <f>25/3.6</f>
         <v>6.9444444444444446</v>
       </c>
-      <c r="G11" s="3">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="G12" s="3">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A13" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3">
-        <f>36*1000/3600</f>
-        <v>10</v>
-      </c>
-      <c r="G12" s="3">
-        <v>30</v>
-      </c>
-      <c r="H12" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="B13" s="5">
         <v>26</v>
       </c>
       <c r="C13" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5">
         <v>28</v>
       </c>
       <c r="E13" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F13" s="3">
+        <f>36*1000/3600</f>
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
         <f>9*10/3.6</f>
         <v>25</v>
-      </c>
-      <c r="G13" s="3">
-        <v>30</v>
-      </c>
-      <c r="H13" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3">
-        <f>3.6*10/3.6</f>
-        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>30</v>
@@ -940,73 +943,74 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5">
+        <v>30</v>
+      </c>
+      <c r="C15" s="4">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3">
+        <f>3.6*10/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="3">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B16" s="5">
         <v>26</v>
       </c>
-      <c r="C15" s="4">
-        <v>18</v>
-      </c>
-      <c r="D15" s="5">
-        <v>28</v>
-      </c>
-      <c r="E15" s="4">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="C16" s="4">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3">
         <v>36</v>
       </c>
-      <c r="G15" s="3">
-        <v>30</v>
-      </c>
-      <c r="H15" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="G16" s="3">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="5">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4">
-        <v>18</v>
-      </c>
-      <c r="D16" s="5">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>30</v>
-      </c>
-      <c r="H16" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="B17" s="5">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D17" s="5">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4">
-        <v>-18</v>
+        <v>12</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1018,63 +1022,62 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-18</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B19" s="5">
         <v>26</v>
       </c>
-      <c r="C18" s="4">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5">
-        <v>28</v>
-      </c>
-      <c r="E18" s="4">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="C19" s="4">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3">
         <f>20*15/3.6</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="G18" s="3">
-        <v>30</v>
-      </c>
-      <c r="H18" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="G19" s="3">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A20" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B19" s="5">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5">
-        <v>28</v>
-      </c>
-      <c r="E19" s="4">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3">
-        <f>36/3.6</f>
-        <v>10</v>
-      </c>
-      <c r="G19" s="3">
-        <v>30</v>
-      </c>
-      <c r="H19" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="B20" s="5">
         <v>26</v>
@@ -1093,15 +1096,15 @@
         <v>10</v>
       </c>
       <c r="G20" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="5">
         <v>26</v>
@@ -1116,13 +1119,40 @@
         <v>12</v>
       </c>
       <c r="F21" s="3">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
+        <v>40</v>
+      </c>
+      <c r="H21" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3">
         <f>30/3.6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G21" s="3">
-        <v>30</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G22" s="3">
+        <v>30</v>
+      </c>
+      <c r="H22" s="3">
         <v>60</v>
       </c>
     </row>
@@ -1134,13 +1164,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D1F662-1603-420C-ABB1-F7E85464E413}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="15.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
@@ -1154,7 +1184,7 @@
     <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -1180,7 +1210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1206,7 +1236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1260,37 +1290,37 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G5" s="3">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5">
-        <v>28</v>
-      </c>
-      <c r="E5" s="4">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3">
-        <f>36/3.6</f>
-        <v>10</v>
-      </c>
-      <c r="G5" s="3">
-        <v>30</v>
-      </c>
-      <c r="H5" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="B6" s="5">
         <v>27</v>
       </c>
@@ -1301,7 +1331,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3">
         <f>36/3.6</f>
@@ -1314,36 +1344,36 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A8" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="5">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3">
-        <f>30/3.6</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="G7" s="3">
-        <v>30</v>
-      </c>
-      <c r="H7" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="B8" s="5">
         <v>27</v>
@@ -1368,15 +1398,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5">
         <v>27</v>
       </c>
       <c r="C9" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5">
         <v>28</v>
@@ -1385,143 +1415,143 @@
         <v>12</v>
       </c>
       <c r="F9" s="3">
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G9" s="3">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
         <f>36/3.6</f>
         <v>10</v>
       </c>
-      <c r="G9" s="3">
-        <v>30</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G10" s="3">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5">
         <v>31</v>
       </c>
-      <c r="C10" s="4">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C11" s="4">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5">
         <v>32</v>
       </c>
-      <c r="E10" s="4">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E11" s="4">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
         <f>10*15/3.6</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="G10" s="3">
-        <v>30</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G11" s="3">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3">
         <f>25/3.6</f>
         <v>6.9444444444444446</v>
       </c>
-      <c r="G11" s="3">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="G12" s="3">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="5">
         <v>26</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>22</v>
       </c>
-      <c r="D12" s="5">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D13" s="5">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3">
         <f>36*1000/3600</f>
         <v>10</v>
       </c>
-      <c r="G12" s="3">
-        <v>30</v>
-      </c>
-      <c r="H12" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="G13" s="3">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="B14" s="5">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
         <f>9*10/3.6</f>
         <v>25</v>
-      </c>
-      <c r="G13" s="3">
-        <v>30</v>
-      </c>
-      <c r="H13" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3">
-        <f>3.6*10/3.6</f>
-        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>30</v>
@@ -1530,73 +1560,74 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3">
+        <f>3.6*10/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="3">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="5">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4">
-        <v>18</v>
-      </c>
-      <c r="D15" s="5">
-        <v>28</v>
-      </c>
-      <c r="E15" s="4">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="B16" s="5">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3">
         <v>36</v>
       </c>
-      <c r="G15" s="3">
-        <v>30</v>
-      </c>
-      <c r="H15" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="G16" s="3">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="5">
         <v>29</v>
       </c>
-      <c r="C16" s="4">
-        <v>18</v>
-      </c>
-      <c r="D16" s="5">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>30</v>
-      </c>
-      <c r="H16" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2</v>
-      </c>
       <c r="C17" s="4">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D17" s="5">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4">
-        <v>-18</v>
+        <v>12</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1608,63 +1639,62 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-18</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5">
-        <v>28</v>
-      </c>
-      <c r="E18" s="4">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="B19" s="5">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3">
         <f>20*15/3.6</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="G18" s="3">
-        <v>30</v>
-      </c>
-      <c r="H18" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="G19" s="3">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A20" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B19" s="5">
-        <v>27</v>
-      </c>
-      <c r="C19" s="4">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5">
-        <v>28</v>
-      </c>
-      <c r="E19" s="4">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3">
-        <f>36/3.6</f>
-        <v>10</v>
-      </c>
-      <c r="G19" s="3">
-        <v>30</v>
-      </c>
-      <c r="H19" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="B20" s="5">
         <v>27</v>
@@ -1683,36 +1713,63 @@
         <v>10</v>
       </c>
       <c r="G20" s="3">
+        <v>30</v>
+      </c>
+      <c r="H20" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>27</v>
+      </c>
+      <c r="C21" s="4">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
         <v>40</v>
       </c>
-      <c r="H20" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="H21" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="5">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4">
-        <v>21</v>
-      </c>
-      <c r="D21" s="5">
-        <v>28</v>
-      </c>
-      <c r="E21" s="4">
-        <v>12</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="B22" s="5">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3">
         <f>30/3.6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G21" s="3">
-        <v>30</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G22" s="3">
+        <v>30</v>
+      </c>
+      <c r="H22" s="3">
         <v>60</v>
       </c>
     </row>
@@ -1724,13 +1781,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018655D1-DDB8-4883-BE9B-9756B1667B5E}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="15.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
@@ -1743,7 +1800,7 @@
     <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -1769,7 +1826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1795,7 +1852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1822,7 +1879,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1849,9 +1906,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B5" s="5">
         <v>27</v>
@@ -1863,11 +1920,11 @@
         <v>28</v>
       </c>
       <c r="E5" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3">
-        <f>36/3.6</f>
-        <v>10</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G5" s="3">
         <v>30</v>
@@ -1876,9 +1933,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>27</v>
@@ -1890,7 +1947,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3">
         <f>36/3.6</f>
@@ -1903,36 +1960,36 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A8" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="5">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3">
-        <f>30/3.6</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="G7" s="3">
-        <v>30</v>
-      </c>
-      <c r="H7" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="B8" s="5">
         <v>27</v>
@@ -1957,160 +2014,160 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5">
         <v>27</v>
       </c>
       <c r="C9" s="4">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3">
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G9" s="3">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4">
         <v>20</v>
       </c>
-      <c r="D9" s="5">
-        <v>28</v>
-      </c>
-      <c r="E9" s="4">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D10" s="5">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
         <f>36/3.6</f>
         <v>10</v>
       </c>
-      <c r="G9" s="3">
-        <v>30</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G10" s="3">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5">
         <v>31</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>17</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <v>32</v>
       </c>
-      <c r="E10" s="4">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E11" s="4">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
         <f>10*15/3.6</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="G10" s="3">
-        <v>30</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G11" s="3">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4">
         <v>20</v>
       </c>
-      <c r="D11" s="5">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="D12" s="5">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3">
         <f>25/3.6</f>
         <v>6.9444444444444446</v>
       </c>
-      <c r="G11" s="3">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="G12" s="3">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="5">
         <v>26</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>22</v>
       </c>
-      <c r="D12" s="5">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D13" s="5">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3">
         <f>36*1000/3600</f>
         <v>10</v>
       </c>
-      <c r="G12" s="3">
-        <v>30</v>
-      </c>
-      <c r="H12" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="G13" s="3">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B14" s="5">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4">
         <v>17</v>
       </c>
-      <c r="D13" s="5">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="D14" s="5">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
         <f>9*10/3.6</f>
         <v>25</v>
-      </c>
-      <c r="G13" s="3">
-        <v>30</v>
-      </c>
-      <c r="H13" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3">
-        <f>3.6*10/3.6</f>
-        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>30</v>
@@ -2119,38 +2176,39 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3">
+        <f>3.6*10/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="3">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="5">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4">
-        <v>17</v>
-      </c>
-      <c r="D15" s="5">
-        <v>28</v>
-      </c>
-      <c r="E15" s="4">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3">
-        <v>36</v>
-      </c>
-      <c r="G15" s="3">
-        <v>30</v>
-      </c>
-      <c r="H15" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="B16" s="5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4">
         <v>17</v>
@@ -2162,30 +2220,30 @@
         <v>12</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G16" s="3">
         <v>30</v>
       </c>
       <c r="H16" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" s="5">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D17" s="5">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4">
-        <v>-18</v>
+        <v>12</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2197,63 +2255,62 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-18</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B19" s="5">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4">
         <v>20</v>
       </c>
-      <c r="D18" s="5">
-        <v>28</v>
-      </c>
-      <c r="E18" s="4">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="D19" s="5">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3">
         <f>20*15/3.6</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="G18" s="3">
-        <v>30</v>
-      </c>
-      <c r="H18" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="G19" s="3">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A20" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B19" s="5">
-        <v>27</v>
-      </c>
-      <c r="C19" s="4">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5">
-        <v>28</v>
-      </c>
-      <c r="E19" s="4">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3">
-        <f>36/3.6</f>
-        <v>10</v>
-      </c>
-      <c r="G19" s="3">
-        <v>30</v>
-      </c>
-      <c r="H19" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="B20" s="5">
         <v>27</v>
@@ -2272,15 +2329,15 @@
         <v>10</v>
       </c>
       <c r="G20" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="5">
         <v>27</v>
@@ -2295,13 +2352,40 @@
         <v>12</v>
       </c>
       <c r="F21" s="3">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
+        <v>40</v>
+      </c>
+      <c r="H21" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3">
         <f>30/3.6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G21" s="3">
-        <v>30</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G22" s="3">
+        <v>30</v>
+      </c>
+      <c r="H22" s="3">
         <v>60</v>
       </c>
     </row>
@@ -2313,13 +2397,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8C7297-5AB4-4ABB-96D9-8169D146ADCF}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="15.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
@@ -2332,7 +2416,7 @@
     <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -2358,7 +2442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -2384,7 +2468,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -2411,7 +2495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -2438,37 +2522,37 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G5" s="3">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5">
-        <v>28</v>
-      </c>
-      <c r="E5" s="4">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3">
-        <f>36/3.6</f>
-        <v>10</v>
-      </c>
-      <c r="G5" s="3">
-        <v>30</v>
-      </c>
-      <c r="H5" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="B6" s="5">
         <v>25</v>
       </c>
@@ -2479,7 +2563,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3">
         <f>36/3.6</f>
@@ -2492,36 +2576,36 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A8" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="5">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3">
-        <f>30/3.6</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="G7" s="3">
-        <v>30</v>
-      </c>
-      <c r="H7" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="B8" s="5">
         <v>25</v>
@@ -2546,15 +2630,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5">
         <v>25</v>
       </c>
       <c r="C9" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5">
         <v>28</v>
@@ -2563,143 +2647,143 @@
         <v>12</v>
       </c>
       <c r="F9" s="3">
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G9" s="3">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
         <f>36/3.6</f>
         <v>10</v>
       </c>
-      <c r="G9" s="3">
-        <v>30</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G10" s="3">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5">
         <v>29</v>
       </c>
-      <c r="C10" s="4">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C11" s="4">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5">
         <v>32</v>
       </c>
-      <c r="E10" s="4">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E11" s="4">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
         <f>10*15/3.6</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="G10" s="3">
-        <v>30</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G11" s="3">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3">
         <f>25/3.6</f>
         <v>6.9444444444444446</v>
       </c>
-      <c r="G11" s="3">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="G12" s="3">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="5">
         <v>26</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>22</v>
       </c>
-      <c r="D12" s="5">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D13" s="5">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3">
         <f>36*1000/3600</f>
         <v>10</v>
       </c>
-      <c r="G12" s="3">
-        <v>30</v>
-      </c>
-      <c r="H12" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="G13" s="3">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="B14" s="5">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
         <f>9*10/3.6</f>
         <v>25</v>
-      </c>
-      <c r="G13" s="3">
-        <v>30</v>
-      </c>
-      <c r="H13" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3">
-        <f>3.6*10/3.6</f>
-        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>30</v>
@@ -2708,73 +2792,74 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3">
+        <f>3.6*10/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="3">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="5">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4">
-        <v>18</v>
-      </c>
-      <c r="D15" s="5">
-        <v>28</v>
-      </c>
-      <c r="E15" s="4">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="B16" s="5">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3">
         <v>36</v>
       </c>
-      <c r="G15" s="3">
-        <v>30</v>
-      </c>
-      <c r="H15" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="G16" s="3">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="5">
-        <v>27</v>
-      </c>
-      <c r="C16" s="4">
-        <v>18</v>
-      </c>
-      <c r="D16" s="5">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>30</v>
-      </c>
-      <c r="H16" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="B17" s="5">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D17" s="5">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4">
-        <v>-18</v>
+        <v>12</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2786,63 +2871,62 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-18</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5">
-        <v>28</v>
-      </c>
-      <c r="E18" s="4">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="B19" s="5">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3">
         <f>20*15/3.6</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="G18" s="3">
-        <v>30</v>
-      </c>
-      <c r="H18" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="G19" s="3">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A20" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B19" s="5">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5">
-        <v>28</v>
-      </c>
-      <c r="E19" s="4">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3">
-        <f>36/3.6</f>
-        <v>10</v>
-      </c>
-      <c r="G19" s="3">
-        <v>30</v>
-      </c>
-      <c r="H19" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="B20" s="5">
         <v>25</v>
@@ -2861,36 +2945,63 @@
         <v>10</v>
       </c>
       <c r="G20" s="3">
+        <v>30</v>
+      </c>
+      <c r="H20" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
         <v>40</v>
       </c>
-      <c r="H20" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="H21" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="5">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4">
-        <v>21</v>
-      </c>
-      <c r="D21" s="5">
-        <v>28</v>
-      </c>
-      <c r="E21" s="4">
-        <v>12</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="B22" s="5">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3">
         <f>30/3.6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G21" s="3">
-        <v>30</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G22" s="3">
+        <v>30</v>
+      </c>
+      <c r="H22" s="3">
         <v>60</v>
       </c>
     </row>
@@ -2902,13 +3013,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18422FAC-69A9-4746-AD3F-5A3D121920DF}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="15.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
@@ -2921,7 +3032,7 @@
     <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -2947,7 +3058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -2973,7 +3084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -3000,7 +3111,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -3027,37 +3138,37 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G5" s="3">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5">
-        <v>28</v>
-      </c>
-      <c r="E5" s="4">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3">
-        <f>36/3.6</f>
-        <v>10</v>
-      </c>
-      <c r="G5" s="3">
-        <v>30</v>
-      </c>
-      <c r="H5" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="B6" s="5">
         <v>25</v>
       </c>
@@ -3068,7 +3179,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3">
         <f>36/3.6</f>
@@ -3081,36 +3192,36 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A8" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="5">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3">
-        <f>30/3.6</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="G7" s="3">
-        <v>30</v>
-      </c>
-      <c r="H7" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="B8" s="5">
         <v>25</v>
@@ -3135,15 +3246,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5">
         <v>25</v>
       </c>
       <c r="C9" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5">
         <v>28</v>
@@ -3152,143 +3263,143 @@
         <v>12</v>
       </c>
       <c r="F9" s="3">
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G9" s="3">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
         <f>36/3.6</f>
         <v>10</v>
       </c>
-      <c r="G9" s="3">
-        <v>30</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G10" s="3">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5">
         <v>29</v>
       </c>
-      <c r="C10" s="4">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C11" s="4">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5">
         <v>32</v>
       </c>
-      <c r="E10" s="4">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E11" s="4">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
         <f>10*15/3.6</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="G10" s="3">
-        <v>30</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G11" s="3">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3">
         <f>25/3.6</f>
         <v>6.9444444444444446</v>
       </c>
-      <c r="G11" s="3">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="G12" s="3">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="5">
         <v>26</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>22</v>
       </c>
-      <c r="D12" s="5">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D13" s="5">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3">
         <f>36*1000/3600</f>
         <v>10</v>
       </c>
-      <c r="G12" s="3">
-        <v>30</v>
-      </c>
-      <c r="H12" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="G13" s="3">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="B14" s="5">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
         <f>9*10/3.6</f>
         <v>25</v>
-      </c>
-      <c r="G13" s="3">
-        <v>30</v>
-      </c>
-      <c r="H13" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3">
-        <f>3.6*10/3.6</f>
-        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>30</v>
@@ -3297,73 +3408,74 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3">
+        <f>3.6*10/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="3">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="5">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4">
-        <v>18</v>
-      </c>
-      <c r="D15" s="5">
-        <v>28</v>
-      </c>
-      <c r="E15" s="4">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="B16" s="5">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3">
         <v>36</v>
       </c>
-      <c r="G15" s="3">
-        <v>30</v>
-      </c>
-      <c r="H15" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="G16" s="3">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="5">
-        <v>27</v>
-      </c>
-      <c r="C16" s="4">
-        <v>18</v>
-      </c>
-      <c r="D16" s="5">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>30</v>
-      </c>
-      <c r="H16" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="B17" s="5">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D17" s="5">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4">
-        <v>-18</v>
+        <v>12</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -3375,63 +3487,62 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-18</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5">
-        <v>28</v>
-      </c>
-      <c r="E18" s="4">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="B19" s="5">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3">
         <f>20*15/3.6</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="G18" s="3">
-        <v>30</v>
-      </c>
-      <c r="H18" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="G19" s="3">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A20" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B19" s="5">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5">
-        <v>28</v>
-      </c>
-      <c r="E19" s="4">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3">
-        <f>36/3.6</f>
-        <v>10</v>
-      </c>
-      <c r="G19" s="3">
-        <v>30</v>
-      </c>
-      <c r="H19" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="B20" s="5">
         <v>25</v>
@@ -3450,36 +3561,63 @@
         <v>10</v>
       </c>
       <c r="G20" s="3">
+        <v>30</v>
+      </c>
+      <c r="H20" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
         <v>40</v>
       </c>
-      <c r="H20" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="H21" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="5">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4">
-        <v>21</v>
-      </c>
-      <c r="D21" s="5">
-        <v>28</v>
-      </c>
-      <c r="E21" s="4">
-        <v>12</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="B22" s="5">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3">
         <f>30/3.6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G21" s="3">
-        <v>30</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G22" s="3">
+        <v>30</v>
+      </c>
+      <c r="H22" s="3">
         <v>60</v>
       </c>
     </row>

--- a/remap_ville_plugin/CH_ReMaP/archetypes/INDOOR_COMFORT_SUMMARY.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/INDOOR_COMFORT_SUMMARY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoraiopoulos\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF64D85D-D800-4C12-AE92-BC259B9D76A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FAFE0B-2FA9-48DE-AAD0-2DD3033B72F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="4" xr2:uid="{53BA8E7A-152A-46DA-BA2F-0D9D440113B3}"/>
+    <workbookView xWindow="735" yWindow="930" windowWidth="27690" windowHeight="15675" xr2:uid="{53BA8E7A-152A-46DA-BA2F-0D9D440113B3}"/>
   </bookViews>
   <sheets>
     <sheet name="SQ" sheetId="4" r:id="rId1"/>
@@ -549,25 +549,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F5C796-54D1-4604-BB31-0B30E71D1ECA}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -593,7 +593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -619,7 +619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -646,7 +646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -673,7 +673,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -700,7 +700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -727,7 +727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -754,7 +754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -781,7 +781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -808,7 +808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -835,7 +835,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -862,7 +862,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -889,7 +889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -916,7 +916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -943,7 +943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -970,7 +970,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -996,7 +996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
@@ -1167,24 +1167,24 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5">
         <v>28</v>
@@ -1236,7 +1236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5">
         <v>28</v>
@@ -1263,7 +1263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5">
         <v>28</v>
@@ -1290,7 +1290,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5">
         <v>28</v>
@@ -1317,7 +1317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5">
         <v>28</v>
@@ -1344,7 +1344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5">
         <v>28</v>
@@ -1371,7 +1371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5">
         <v>28</v>
@@ -1398,7 +1398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5">
         <v>28</v>
@@ -1425,7 +1425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5">
         <v>28</v>
@@ -1452,7 +1452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5">
         <v>32</v>
@@ -1479,7 +1479,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5">
         <v>28</v>
@@ -1506,7 +1506,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="5">
         <v>28</v>
@@ -1560,7 +1560,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="5">
         <v>32</v>
@@ -1587,7 +1587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="5">
         <v>28</v>
@@ -1613,7 +1613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="5">
         <v>28</v>
@@ -1639,7 +1639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="5">
         <v>28</v>
@@ -1692,7 +1692,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="5">
         <v>28</v>
@@ -1719,7 +1719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5">
         <v>28</v>
@@ -1746,7 +1746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="5">
         <v>28</v>
@@ -1783,24 +1783,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018655D1-DDB8-4883-BE9B-9756B1667B5E}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
@@ -2399,24 +2399,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8C7297-5AB4-4ABB-96D9-8169D146ADCF}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
@@ -3015,24 +3015,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18422FAC-69A9-4746-AD3F-5A3D121920DF}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
